--- a/data/trans_bre/P25A_10_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_10_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -630,32 +662,52 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5,05</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -678,7 +730,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,07</t>
+          <t>0,0; 2,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,15 +745,35 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>1,54; 11,84</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,25</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>317,81%</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-44,54%</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-19,63%</t>
+          <t>424,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>-32,75%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-2,54%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>359,0%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>172,89%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 4,95</t>
+          <t>0,03; 5,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,81</t>
+          <t>-1,91; 0,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,42</t>
+          <t>-1,73; 1,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,23; 51,3</t>
+          <t>0,57; 5,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>0,15; 8,78</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-0,31; 8,46</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-49,09; —</t>
         </is>
       </c>
     </row>
@@ -825,37 +937,57 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>125,41%</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>5,55</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>121,12%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>810,37%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,94%</t>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>827,05%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>205,15%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>152,61%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>472,53%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,9</t>
+          <t>-0,82; 3,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,15</t>
+          <t>1,06; 4,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,01</t>
+          <t>0,75; 4,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,08; 17,81</t>
+          <t>-0,48; 4,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,36; 1012,59</t>
+          <t>0,33; 8,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>2,46; 9,09</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-56,76; 1048,31</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-87,81; —</t>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-8,45; 877,76</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>38,51; 2256,96</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>434,67%</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>134,71%</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>136,93%</t>
+          <t>410,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,65%</t>
+          <t>128,36%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>135,29%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>137,82%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>146,82%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>500,59%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,62</t>
+          <t>1,21; 5,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 4,5</t>
+          <t>-0,36; 4,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,85</t>
+          <t>0,05; 4,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,98; 17,15</t>
+          <t>-0,56; 6,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,62; —</t>
+          <t>1,83; 11,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 742,36</t>
+          <t>2,84; 9,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 698,33</t>
+          <t>3,7; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,98; 264,28</t>
+          <t>-28,88; 624,48</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-7,95; 627,82</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-43,18; 896,51</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>23,9; 501,08</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>68,23; 2108,96</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,83</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>942,78%</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>167,87%</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>942,81%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>69,45%</t>
+          <t>152,25%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>97,73%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>279,82%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>50,74%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>707,44%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,34; 12,16</t>
+          <t>4,64; 12,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,97</t>
+          <t>-0,01; 6,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 5,59</t>
+          <t>-1,02; 5,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 33,31</t>
+          <t>3,39; 12,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>159,23; —</t>
+          <t>-1,98; 8,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 819,46</t>
+          <t>5,02; 14,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-39,27; 651,45</t>
+          <t>180,26; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-24,4; 392,47</t>
+          <t>-13,39; 707,9</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-50,55; 486,29</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>48,67; 1011,82</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-22,31; 186,33</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>110,84; 3241,23</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,19</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-8,86</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>299,32%</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>10,24</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>227,6%</t>
+          <t>260,51%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-26,47%</t>
+          <t>48,09%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>299,42%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>156,19%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>197,87%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>303,22%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,92; 13,85</t>
+          <t>3,13; 13,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 7,08</t>
+          <t>-3,08; 7,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,27; 11,08</t>
+          <t>2,5; 14,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,61; 17,8</t>
+          <t>-0,03; 10,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>39,85; 1057,73</t>
+          <t>1,29; 14,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,2; 198,24</t>
+          <t>4,12; 17,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 1222,99</t>
+          <t>50,85; 1274,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-73,33; 180,43</t>
+          <t>-41,15; 252,83</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>12,99; 1779,83</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-25,36; 874,92</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 765,65</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>39,78; 1210,64</t>
         </is>
       </c>
     </row>
@@ -1225,37 +1497,57 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>387,09%</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>118,3%</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>193,88%</t>
+          <t>375,33%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>126,65%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>224,11%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>242,24%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>148,41%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>445,67%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,8; 5,49</t>
+          <t>2,68; 5,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,1</t>
+          <t>0,77; 3,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,7</t>
+          <t>1,59; 4,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 14,12</t>
+          <t>2,16; 5,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>176,52; 813,63</t>
+          <t>2,61; 6,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,64; 282,09</t>
+          <t>5,11; 9,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>74,18; 432,77</t>
+          <t>157,96; 843,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-32,66; 105,23</t>
+          <t>25,65; 294,54</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>80,62; 460,42</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>94,62; 536,17</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>60,68; 281,96</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>231,75; 845,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
